--- a/medicine/Enfance/Concours_littéraire_ACELF/Concours_littéraire_ACELF.xlsx
+++ b/medicine/Enfance/Concours_littéraire_ACELF/Concours_littéraire_ACELF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concours_litt%C3%A9raire_ACELF</t>
+          <t>Concours_littéraire_ACELF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concours littéraire ACELF était organisé par l'Association canadienne d'éducation de langue française. 
 Il a été créé en 1958 afin d'encourager la création littéraire d'expression française destinée aux enfants et aux adolescents.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concours_litt%C3%A9raire_ACELF</t>
+          <t>Concours_littéraire_ACELF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1958 - Monique Corriveau - Le Secret de Vanille et Paule Daveluy - L'Été enchanté
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1958 - Monique Corriveau - Le Secret de Vanille et Paule Daveluy - L'Été enchanté
 1959 - Claude Aubry - Les Îles du roi Mahabraha II
 1960 - Monique Corriveau - Luc et ses amis
 1961 - Cécile Deguire-Morris - Tarina la perle timide
@@ -525,16 +539,84 @@
 1981 - Aucun lauréat
 1982 - Raymond Plante - La Machine à beauté et André Poulin - Pistache et les étoiles
 1983 - Diane Turcotte - Les Os de l'Anse-aux-Mouques
-1984 - Aucun lauréat
-Prix ACELF/Raymond-Beauchemin
-1985 - Cécile Gagnon - Où ça mène le progrès ?
+1984 - Aucun lauréat</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_ACELF</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_ACELF</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prix ACELF/Raymond-Beauchemin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1985 - Cécile Gagnon - Où ça mène le progrès ?
 1986 - Suzanne Julien - Les Mémoires d'une sorcière
 1987 - Raymond Plante - Le Roi de rien
 1988 - Philippe Chauveau - Robots et robots inc.
 1989 - Lucie Papineau - La Dompteuse de perruche
-1990 - Mimi Legault - Rouli-roulant, rouli-roulante
-Prix ACELF/Cécile-Rouleau
-1985 - David Schinkel et Yves Beauchesne - Deuxième chance
+1990 - Mimi Legault - Rouli-roulant, rouli-roulante</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Concours_littéraire_ACELF</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Concours_litt%C3%A9raire_ACELF</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix ACELF/Cécile-Rouleau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1985 - David Schinkel et Yves Beauchesne - Deuxième chance
 1986 - Aucun lauréat
 1987 - Suzanne Julien - L'Étoffe du pays
 1988 - Daniel Marchildon - Le Bien précieux de l'île Beausoleil
